--- a/Hyperparamter Tuning.xlsx
+++ b/Hyperparamter Tuning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofc-my.sharepoint.com/personal/jaxton_gray_ucalgary_ca/Documents/University/6th Year/ML Thesis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofc-my.sharepoint.com/personal/jaxton_gray_ucalgary_ca/Documents/University/6th Year/ML Thesis/ML_Thesis_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{13857EA4-F3A9-4150-99DD-804E1101E874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06AEEDD9-E8D6-4AF1-A5A6-8B75E12957E8}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{13857EA4-F3A9-4150-99DD-804E1101E874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5543B274-2A05-47DF-99FF-A813DDB08021}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2190" windowWidth="29040" windowHeight="15840" xr2:uid="{0D338E23-0224-401A-9F54-0F16C00A3DEB}"/>
+    <workbookView xWindow="-28800" yWindow="2310" windowWidth="14400" windowHeight="15600" xr2:uid="{0D338E23-0224-401A-9F54-0F16C00A3DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Batch_Size</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Changed the structure of date to be year, and day of year</t>
+  </si>
+  <si>
+    <t>Notes:</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -372,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -391,9 +400,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,14 +427,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -462,7 +468,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -568,7 +574,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -710,7 +716,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -722,7 +728,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L10" sqref="L10"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +765,7 @@
       <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -1117,6 +1123,9 @@
       </c>
     </row>
     <row r="10" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
       <c r="J10" s="15" t="s">
         <v>46</v>
       </c>
